--- a/earlywarning-pom/earlywarning-config/src/baf-instances/14_JdbcConnections.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/14_JdbcConnections.xlsx
@@ -110,10 +110,10 @@
     <t>TEWSA_OWN</t>
   </si>
   <si>
-    <t>jdbc:teradata://10.13.169.41</t>
+    <t>jdbc:teradata://10.13.169.41/DATABASE=TEWSA0D</t>
   </si>
   <si>
-    <t xml:space="preserve">CHARSET = UTF8; DATABASE=TEWSA0D;TMODE = ANSI;QueryBand = 'ApplicationName = [APPID]; Version = [VERSION]; ClientUser = [LOGONID];'; </t>
+    <t>CHARSET = UTF8;TMODE = ANSI;</t>
   </si>
 </sst>
 </file>
@@ -1016,6 +1016,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5429250" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1284,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/14_JdbcConnections.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/14_JdbcConnections.xlsx
@@ -107,13 +107,13 @@
     <t>TeradataDS</t>
   </si>
   <si>
-    <t>TEWSA_OWN</t>
+    <t>CHARSET = UTF8;TMODE = ANSI;</t>
   </si>
   <si>
-    <t>jdbc:teradata://10.13.169.41/DATABASE=TEWSA0D</t>
+    <t>jdbc:teradata://STDCAS02-1-2.sede.corp.sanpaoloimi.com/DATABASE=TEWSA0W</t>
   </si>
   <si>
-    <t>CHARSET = UTF8;TMODE = ANSI;</t>
+    <t>TEWSA_APP</t>
   </si>
 </sst>
 </file>
@@ -1064,6 +1064,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5429250" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1333,7 +1381,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1388,13 +1436,13 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
